--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/13.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/13.xlsx
@@ -55,274 +55,274 @@
     <t>Πωλήσεις Έκπτωση 1</t>
   </si>
   <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion In Shower 250ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Invisible {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
+  </si>
+  <si>
     <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Invisible {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
+    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Spray 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
   </si>
   <si>
     <t>PizBuin® After Sun Lotion 200ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion In Shower 250ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Spray 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray {SPF30} 200ml</t>
+    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
   </si>
   <si>
     <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
+    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Tube 50 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF20} 200ml</t>
   </si>
   <si>
     <t>Nivea® After Sun Sensitive Gel 175ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Tube 50 150ml</t>
+    <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
   </si>
   <si>
     <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
-  </si>
-  <si>
     <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
   </si>
   <si>
+    <t>5201178030928</t>
+  </si>
+  <si>
+    <t>5201178035831</t>
+  </si>
+  <si>
+    <t>4005808751259</t>
+  </si>
+  <si>
+    <t>4005808473588</t>
+  </si>
+  <si>
+    <t>4005808478200</t>
+  </si>
+  <si>
+    <t>5201178022862</t>
+  </si>
+  <si>
+    <t>4005808262106</t>
+  </si>
+  <si>
+    <t>4005808432349</t>
+  </si>
+  <si>
+    <t>5201178033226</t>
+  </si>
+  <si>
+    <t>4005808283460</t>
+  </si>
+  <si>
+    <t>4005808449002</t>
+  </si>
+  <si>
+    <t>4005808433292</t>
+  </si>
+  <si>
+    <t>5201178035244</t>
+  </si>
+  <si>
+    <t>4005900128607</t>
+  </si>
+  <si>
+    <t>3574661492124</t>
+  </si>
+  <si>
+    <t>4005808854028</t>
+  </si>
+  <si>
+    <t>5201178026785</t>
+  </si>
+  <si>
+    <t>4005900128720</t>
+  </si>
+  <si>
     <t>4005808429882</t>
   </si>
   <si>
-    <t>4005808473588</t>
-  </si>
-  <si>
-    <t>4005808262106</t>
-  </si>
-  <si>
-    <t>4005808283460</t>
-  </si>
-  <si>
-    <t>4005808432349</t>
-  </si>
-  <si>
-    <t>5201178033226</t>
-  </si>
-  <si>
-    <t>5201178030928</t>
+    <t>5201178035923</t>
+  </si>
+  <si>
+    <t>3574661192857</t>
+  </si>
+  <si>
+    <t>4005808445417</t>
+  </si>
+  <si>
+    <t>3574661407692</t>
+  </si>
+  <si>
+    <t>5201178033257</t>
   </si>
   <si>
     <t>3574661469294</t>
   </si>
   <si>
-    <t>4005808449002</t>
-  </si>
-  <si>
-    <t>4005808751259</t>
-  </si>
-  <si>
-    <t>5201178035831</t>
-  </si>
-  <si>
-    <t>5201178022862</t>
-  </si>
-  <si>
-    <t>4005808478200</t>
-  </si>
-  <si>
-    <t>4005808445417</t>
-  </si>
-  <si>
-    <t>5201178035923</t>
-  </si>
-  <si>
-    <t>3574661407692</t>
-  </si>
-  <si>
-    <t>5201178026785</t>
-  </si>
-  <si>
-    <t>3574661192857</t>
-  </si>
-  <si>
-    <t>4005900128607</t>
-  </si>
-  <si>
-    <t>3574661492124</t>
-  </si>
-  <si>
-    <t>4005808854028</t>
+    <t>4005808593637</t>
   </si>
   <si>
     <t>3574661492148</t>
   </si>
   <si>
-    <t>4005808433292</t>
+    <t>4005808407460</t>
+  </si>
+  <si>
+    <t>4005808422999</t>
+  </si>
+  <si>
+    <t>3574661467153</t>
+  </si>
+  <si>
+    <t>3574661312491</t>
+  </si>
+  <si>
+    <t>3574661464985</t>
+  </si>
+  <si>
+    <t>5201178033912</t>
+  </si>
+  <si>
+    <t>5201178032328</t>
+  </si>
+  <si>
+    <t>4005808856695</t>
+  </si>
+  <si>
+    <t>3574661181417</t>
+  </si>
+  <si>
+    <t>4005808804511</t>
   </si>
   <si>
     <t>5201178037750</t>
   </si>
   <si>
-    <t>4005900128720</t>
-  </si>
-  <si>
-    <t>3574661464985</t>
-  </si>
-  <si>
-    <t>4005808422999</t>
-  </si>
-  <si>
-    <t>4005808407460</t>
-  </si>
-  <si>
-    <t>4005808593637</t>
-  </si>
-  <si>
-    <t>5201178033257</t>
-  </si>
-  <si>
-    <t>5201178035244</t>
-  </si>
-  <si>
-    <t>3574661181417</t>
-  </si>
-  <si>
-    <t>3574661312491</t>
+    <t>5201178033011</t>
+  </si>
+  <si>
+    <t>5201178035138</t>
+  </si>
+  <si>
+    <t>4005808441624</t>
+  </si>
+  <si>
+    <t>5201178026686</t>
+  </si>
+  <si>
+    <t>3574661192833</t>
+  </si>
+  <si>
+    <t>5201178035213</t>
   </si>
   <si>
     <t>3574661467177</t>
-  </si>
-  <si>
-    <t>5201178033912</t>
-  </si>
-  <si>
-    <t>4005808856695</t>
-  </si>
-  <si>
-    <t>3574661467153</t>
-  </si>
-  <si>
-    <t>5201178033011</t>
-  </si>
-  <si>
-    <t>5201178032328</t>
-  </si>
-  <si>
-    <t>4005808804511</t>
-  </si>
-  <si>
-    <t>5201178026686</t>
-  </si>
-  <si>
-    <t>5201178035138</t>
-  </si>
-  <si>
-    <t>4005808441624</t>
-  </si>
-  <si>
-    <t>3574661192833</t>
-  </si>
-  <si>
-    <t>5201178035213</t>
   </si>
   <si>
     <t>4005808859634</t>
@@ -791,7 +791,7 @@
         <v>58</v>
       </c>
       <c r="G2" s="2">
-        <v>17.85</v>
+        <v>16.95</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>59</v>
       </c>
       <c r="G3" s="2">
-        <v>17.85</v>
+        <v>9.9</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>60</v>
       </c>
       <c r="G4" s="2">
-        <v>16.65</v>
+        <v>18.45</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>61</v>
       </c>
       <c r="G5" s="2">
-        <v>17.3</v>
+        <v>17.85</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>62</v>
       </c>
       <c r="G6" s="2">
-        <v>15.5</v>
+        <v>10.15</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -966,7 +966,7 @@
         <v>63</v>
       </c>
       <c r="G7" s="2">
-        <v>18.95</v>
+        <v>10.45</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>64</v>
       </c>
       <c r="G8" s="2">
-        <v>16.95</v>
+        <v>16.65</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>65</v>
       </c>
       <c r="G9" s="2">
-        <v>10.7</v>
+        <v>15.5</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>66</v>
       </c>
       <c r="G10" s="2">
-        <v>16.2</v>
+        <v>18.95</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>67</v>
       </c>
       <c r="G11" s="2">
-        <v>18.45</v>
+        <v>17.3</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>68</v>
       </c>
       <c r="G12" s="2">
-        <v>9.9</v>
+        <v>16.2</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>69</v>
       </c>
       <c r="G13" s="2">
-        <v>10.45</v>
+        <v>17.3</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1188,10 +1188,10 @@
         <v>104</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1211,7 +1211,7 @@
         <v>70</v>
       </c>
       <c r="G14" s="2">
-        <v>10.15</v>
+        <v>14.95</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1223,10 +1223,10 @@
         <v>104</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>0</v>
+        <v>9.65</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1246,7 +1246,7 @@
         <v>71</v>
       </c>
       <c r="G15" s="2">
-        <v>12.7</v>
+        <v>19.9</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1261,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>8.19</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1281,7 +1281,7 @@
         <v>72</v>
       </c>
       <c r="G16" s="2">
-        <v>9.9</v>
+        <v>12.9</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>6.38</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1316,7 +1316,7 @@
         <v>73</v>
       </c>
       <c r="G17" s="2">
-        <v>9.1</v>
+        <v>17.8</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1325,13 +1325,13 @@
         <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K17" s="1">
         <v>1</v>
       </c>
       <c r="L17" s="2">
-        <v>5.87</v>
+        <v>11.48</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1386,7 +1386,7 @@
         <v>75</v>
       </c>
       <c r="G19" s="2">
-        <v>12.9</v>
+        <v>17.3</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1395,13 +1395,13 @@
         <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>8.32</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1421,7 +1421,7 @@
         <v>76</v>
       </c>
       <c r="G20" s="2">
-        <v>19.9</v>
+        <v>17.85</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>12.84</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1456,7 +1456,7 @@
         <v>77</v>
       </c>
       <c r="G21" s="2">
-        <v>12.9</v>
+        <v>9.9</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1465,13 +1465,13 @@
         <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K21" s="1">
         <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>8.32</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1491,7 +1491,7 @@
         <v>78</v>
       </c>
       <c r="G22" s="2">
-        <v>17.8</v>
+        <v>12.9</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1500,13 +1500,13 @@
         <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K22" s="1">
         <v>1</v>
       </c>
       <c r="L22" s="2">
-        <v>11.48</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1526,7 +1526,7 @@
         <v>79</v>
       </c>
       <c r="G23" s="2">
-        <v>13.35</v>
+        <v>12.7</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K23" s="1">
         <v>1</v>
       </c>
       <c r="L23" s="2">
-        <v>10.77</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1561,7 +1561,7 @@
         <v>80</v>
       </c>
       <c r="G24" s="2">
-        <v>17.3</v>
+        <v>9.1</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1570,13 +1570,13 @@
         <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K24" s="1">
         <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>11.16</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1596,7 +1596,7 @@
         <v>81</v>
       </c>
       <c r="G25" s="2">
-        <v>9.9</v>
+        <v>17.95</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1611,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>6.38</v>
+        <v>11.58</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1631,7 +1631,7 @@
         <v>82</v>
       </c>
       <c r="G26" s="2">
-        <v>17.3</v>
+        <v>10.7</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -1640,13 +1640,13 @@
         <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K26" s="1">
         <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>11.16</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1666,7 +1666,7 @@
         <v>83</v>
       </c>
       <c r="G27" s="2">
-        <v>12.5</v>
+        <v>18.99</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1675,13 +1675,13 @@
         <v>20</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K27" s="1">
         <v>1</v>
       </c>
       <c r="L27" s="2">
-        <v>8.06</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1701,7 +1701,7 @@
         <v>84</v>
       </c>
       <c r="G28" s="2">
-        <v>15.5</v>
+        <v>13.35</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1710,13 +1710,13 @@
         <v>20</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K28" s="1">
         <v>1</v>
       </c>
       <c r="L28" s="2">
-        <v>10</v>
+        <v>10.77</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1771,7 +1771,7 @@
         <v>86</v>
       </c>
       <c r="G30" s="2">
-        <v>18.99</v>
+        <v>15.5</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="2">
-        <v>12.25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1806,7 +1806,7 @@
         <v>87</v>
       </c>
       <c r="G31" s="2">
-        <v>17.95</v>
+        <v>13.35</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>20</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31" s="2">
-        <v>11.58</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1841,7 +1841,7 @@
         <v>88</v>
       </c>
       <c r="G32" s="2">
-        <v>14.95</v>
+        <v>12.4</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -1850,13 +1850,13 @@
         <v>20</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32" s="2">
-        <v>9.65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1876,7 +1876,7 @@
         <v>89</v>
       </c>
       <c r="G33" s="2">
-        <v>16.8</v>
+        <v>12.5</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>2</v>
       </c>
       <c r="L33" s="2">
-        <v>19.51</v>
+        <v>16.12</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1905,13 +1905,13 @@
         <v>44012</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>90</v>
       </c>
       <c r="G34" s="2">
-        <v>12.4</v>
+        <v>18.45</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -1920,13 +1920,13 @@
         <v>20</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K34" s="1">
         <v>2</v>
       </c>
       <c r="L34" s="2">
-        <v>16</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1940,13 +1940,13 @@
         <v>44012</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>91</v>
       </c>
       <c r="G35" s="2">
-        <v>13.35</v>
+        <v>14.95</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -1955,13 +1955,13 @@
         <v>20</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K35" s="1">
         <v>2</v>
       </c>
       <c r="L35" s="2">
-        <v>17.24</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1975,13 +1975,13 @@
         <v>44012</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G36" s="2">
-        <v>18.45</v>
+        <v>18.95</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="L36" s="2">
-        <v>23.8</v>
+        <v>24.44</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2016,7 +2016,7 @@
         <v>93</v>
       </c>
       <c r="G37" s="2">
-        <v>18.95</v>
+        <v>16.8</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -2025,13 +2025,13 @@
         <v>20</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K37" s="1">
         <v>2</v>
       </c>
       <c r="L37" s="2">
-        <v>24.44</v>
+        <v>19.51</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2051,7 +2051,7 @@
         <v>94</v>
       </c>
       <c r="G38" s="2">
-        <v>13.35</v>
+        <v>15.5</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2060,13 +2060,13 @@
         <v>20</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L38" s="2">
-        <v>17.24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2086,7 +2086,7 @@
         <v>95</v>
       </c>
       <c r="G39" s="2">
-        <v>15.5</v>
+        <v>9.9</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>104</v>
       </c>
       <c r="K39" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L39" s="2">
-        <v>20</v>
+        <v>18.19</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2121,7 +2121,7 @@
         <v>96</v>
       </c>
       <c r="G40" s="2">
-        <v>14.95</v>
+        <v>15.5</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -2133,10 +2133,10 @@
         <v>104</v>
       </c>
       <c r="K40" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L40" s="2">
-        <v>19.3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2156,7 +2156,7 @@
         <v>97</v>
       </c>
       <c r="G41" s="2">
-        <v>15.5</v>
+        <v>17.95</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2168,10 +2168,10 @@
         <v>104</v>
       </c>
       <c r="K41" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L41" s="2">
-        <v>30</v>
+        <v>46.32</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2191,7 +2191,7 @@
         <v>98</v>
       </c>
       <c r="G42" s="2">
-        <v>11.95</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>4</v>
       </c>
       <c r="L42" s="2">
-        <v>30.84</v>
+        <v>28.44</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2226,7 +2226,7 @@
         <v>99</v>
       </c>
       <c r="G43" s="2">
-        <v>17.95</v>
+        <v>11.95</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>4</v>
       </c>
       <c r="L43" s="2">
-        <v>46.32</v>
+        <v>30.84</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2261,7 +2261,7 @@
         <v>100</v>
       </c>
       <c r="G44" s="2">
-        <v>9.800000000000001</v>
+        <v>12.2</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2270,13 +2270,13 @@
         <v>20</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K44" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L44" s="2">
-        <v>28.44</v>
+        <v>39.35</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2296,7 +2296,7 @@
         <v>101</v>
       </c>
       <c r="G45" s="2">
-        <v>12.2</v>
+        <v>15.95</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2305,13 +2305,13 @@
         <v>20</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K45" s="1">
         <v>5</v>
       </c>
       <c r="L45" s="2">
-        <v>39.35</v>
+        <v>51.45</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2331,7 +2331,7 @@
         <v>102</v>
       </c>
       <c r="G46" s="2">
-        <v>15.95</v>
+        <v>13.35</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2340,13 +2340,13 @@
         <v>20</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K46" s="1">
         <v>5</v>
       </c>
       <c r="L46" s="2">
-        <v>51.45</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2386,10 +2386,10 @@
     </row>
     <row r="48" spans="1:12">
       <c r="K48" s="5">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L48" s="5">
-        <v>596.61</v>
+        <v>679.46</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/13.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="180">
   <si>
     <t>ΤΙΜΟΚΑΤΑΛΟΓΟΣ</t>
   </si>
@@ -55,283 +55,505 @@
     <t>Πωλήσεις Έκπτωση 1</t>
   </si>
   <si>
+    <t>Πελάτες Τιμή Πώλησης</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Invisible {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
+  </si>
+  <si>
+    <t>Ultrex® Men Σαμπουάν για Κανονικα 400ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Tube 50 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>Nuvoletta® Υγρο Πληντυριου Χρωματιστα 3ltr</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Spray 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PANTENE CONDITIONER 200ML SMOOTH &amp; SILK					</t>
+  </si>
+  <si>
     <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
   </si>
   <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>PANTENE CONDITIONER 200ML NATURE FUSION ΓΙΑ ΔΥΝΑΤΑ &amp; ΛΑΜΠΕΡΑ ΜΑΛΛΙΑ</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion In Shower 250ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
+  </si>
+  <si>
     <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
+    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Skip® Σκόνη Active Clean 45μεζ.</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
   </si>
   <si>
     <t>Nivea® After Sun Lotion 200ml</t>
   </si>
   <si>
-    <t>Nivea® After Sun Lotion In Shower 250ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Invisible {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
+    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Palmolive® Shampoo Color 350ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Sensitive Gel 175ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF20} 200ml</t>
   </si>
   <si>
     <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
   </si>
   <si>
-    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Spray 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Lotion 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Tube 50 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
+    <t xml:space="preserve">PANTENE CONDITIONER 200ML NATURE FUSION -OIL THERAPY					</t>
+  </si>
+  <si>
+    <t>Nuvoletta® Υγρο Πληντυριου Marcilia Clasico 3ltr</t>
+  </si>
+  <si>
+    <t>ULTREX 360ML MEN ΣΑΜΠΟΥΑΝ ΛΙΠΑΡΑ</t>
   </si>
   <si>
     <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Sensitive Gel 175ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
+    <t>Ultrex® Men Σαμπουάν για Ξηροδερμια 400ml</t>
+  </si>
+  <si>
+    <t>Palmolive® Σαμπουαν Για Αντρες 350ml</t>
+  </si>
+  <si>
+    <t>Azax® Γενικού Καθαρισμού Ultra Regular 1ltr</t>
+  </si>
+  <si>
+    <t>Azax® Καθαριστικό Δαπέδου Λουλούδια της ¨Ανοιξης 1ltr</t>
+  </si>
+  <si>
+    <t>PANTENE CONDITIONER 200ML PROTECTION-5 ΕΙΔΙΚΗ ΦΡΟΝΤΙΔΑ</t>
   </si>
   <si>
     <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
   </si>
   <si>
-    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
+    <t>Nuvoletta® Υγρο Πληντυριου Marsilia 3ltr</t>
   </si>
   <si>
     <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
   </si>
   <si>
+    <t>Palmolive® Shampoo 2in1 350ml</t>
+  </si>
+  <si>
+    <t>Nuvoletta® Υγρο Πληντυριου Ορχιδεα&amp;Ανθη Λουλουδιων 3ltr</t>
+  </si>
+  <si>
+    <t>Nuvoletta® Υγρο Πληντυριου Muschio Bianco 3ltr</t>
+  </si>
+  <si>
+    <t>Skip® Σκόνη Spring Fresh 45μεζ.</t>
+  </si>
+  <si>
+    <t>Palmolive® Shampoo Citrus 350ml</t>
+  </si>
+  <si>
+    <t>Palmolive® Shampoo Silky Shine Effect 350ml</t>
+  </si>
+  <si>
+    <t>Azax® Υγρό Δαπέδου Ultra Μασσαλίας 1ltr</t>
+  </si>
+  <si>
+    <t>Pantene® Conditioner Color 200ml</t>
+  </si>
+  <si>
+    <t>Azax® Για Επιφάνειες Λεβάντα 1ltr</t>
+  </si>
+  <si>
+    <t>Ultrex® Men Σαμπουάν για Clasic 2In1 400ml</t>
+  </si>
+  <si>
+    <t>SKIP CONV 2,925KG / 45 ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Azax® FDF Άνθη Πασχαλιάς 1ltr</t>
+  </si>
+  <si>
+    <t>Softex® Ρολά Υγείας Pure &amp; Soft 10τεμ. (+2 Δώρο)</t>
+  </si>
+  <si>
+    <t>SKIP 1,5L LIQUID 30ΜΕΖ</t>
+  </si>
+  <si>
+    <t>Papadopoulou® Φρυγανιές με Σίκαλη Οικ. Συσκ. 320gr (1 πακέτο Δώρο)</t>
+  </si>
+  <si>
+    <t>Papadopoulou® Φρυγανιες Σταρενιες 4τεμ (1τεμ Δωρο) (-0,25 €)</t>
+  </si>
+  <si>
+    <t>Royal Dutch® Μπύρα Κουτί 330ml</t>
+  </si>
+  <si>
+    <t>4005808432349</t>
+  </si>
+  <si>
+    <t>5201178033226</t>
+  </si>
+  <si>
+    <t>4005808854028</t>
+  </si>
+  <si>
+    <t>4005808856695</t>
+  </si>
+  <si>
+    <t>4005900128607</t>
+  </si>
+  <si>
+    <t>4005808283460</t>
+  </si>
+  <si>
+    <t>4005808262106</t>
+  </si>
+  <si>
+    <t>4005808473588</t>
+  </si>
+  <si>
+    <t>3574661192833</t>
+  </si>
+  <si>
+    <t>4005808751259</t>
+  </si>
+  <si>
+    <t>8710447246832</t>
+  </si>
+  <si>
+    <t>3574661464985</t>
+  </si>
+  <si>
+    <t>3574661312491</t>
+  </si>
+  <si>
+    <t>3574661181417</t>
+  </si>
+  <si>
+    <t>3574661492148</t>
+  </si>
+  <si>
+    <t>8016709196717</t>
+  </si>
+  <si>
+    <t>3574661492124</t>
+  </si>
+  <si>
+    <t>3574661407692</t>
+  </si>
+  <si>
+    <t>3574661469294</t>
+  </si>
+  <si>
+    <t>8001090054319</t>
+  </si>
+  <si>
     <t>5201178030928</t>
   </si>
   <si>
+    <t>4005900128720</t>
+  </si>
+  <si>
+    <t>5410076563975</t>
+  </si>
+  <si>
+    <t>4005808422999</t>
+  </si>
+  <si>
+    <t>5201178022862</t>
+  </si>
+  <si>
+    <t>4005808429882</t>
+  </si>
+  <si>
+    <t>4005808441624</t>
+  </si>
+  <si>
+    <t>4005808445417</t>
+  </si>
+  <si>
+    <t>5201178035923</t>
+  </si>
+  <si>
     <t>5201178035831</t>
   </si>
   <si>
-    <t>4005808751259</t>
-  </si>
-  <si>
-    <t>4005808473588</t>
+    <t>5201178035244</t>
+  </si>
+  <si>
+    <t>4005808449002</t>
+  </si>
+  <si>
+    <t>5201178033257</t>
+  </si>
+  <si>
+    <t>4005808593637</t>
+  </si>
+  <si>
+    <t>3574661467177</t>
+  </si>
+  <si>
+    <t>8714100476475</t>
+  </si>
+  <si>
+    <t>4005808407460</t>
   </si>
   <si>
     <t>4005808478200</t>
   </si>
   <si>
-    <t>5201178022862</t>
-  </si>
-  <si>
-    <t>4005808262106</t>
-  </si>
-  <si>
-    <t>4005808432349</t>
-  </si>
-  <si>
-    <t>5201178033226</t>
-  </si>
-  <si>
-    <t>4005808283460</t>
-  </si>
-  <si>
-    <t>4005808449002</t>
+    <t>3574661467153</t>
+  </si>
+  <si>
+    <t>8714789880518</t>
+  </si>
+  <si>
+    <t>5201178035213</t>
+  </si>
+  <si>
+    <t>5201178037750</t>
+  </si>
+  <si>
+    <t>5201178035138</t>
+  </si>
+  <si>
+    <t>3574661192857</t>
+  </si>
+  <si>
+    <t>5201178026785</t>
+  </si>
+  <si>
+    <t>5201178033011</t>
+  </si>
+  <si>
+    <t>4005808804511</t>
   </si>
   <si>
     <t>4005808433292</t>
   </si>
   <si>
-    <t>5201178035244</t>
-  </si>
-  <si>
-    <t>4005900128607</t>
-  </si>
-  <si>
-    <t>3574661492124</t>
-  </si>
-  <si>
-    <t>4005808854028</t>
-  </si>
-  <si>
-    <t>5201178026785</t>
-  </si>
-  <si>
-    <t>4005900128720</t>
-  </si>
-  <si>
-    <t>4005808429882</t>
-  </si>
-  <si>
-    <t>5201178035923</t>
-  </si>
-  <si>
-    <t>3574661192857</t>
-  </si>
-  <si>
-    <t>4005808445417</t>
-  </si>
-  <si>
-    <t>3574661407692</t>
-  </si>
-  <si>
-    <t>5201178033257</t>
-  </si>
-  <si>
-    <t>3574661469294</t>
-  </si>
-  <si>
-    <t>4005808593637</t>
-  </si>
-  <si>
-    <t>3574661492148</t>
-  </si>
-  <si>
-    <t>4005808407460</t>
-  </si>
-  <si>
-    <t>4005808422999</t>
-  </si>
-  <si>
-    <t>3574661467153</t>
-  </si>
-  <si>
-    <t>3574661312491</t>
-  </si>
-  <si>
-    <t>3574661464985</t>
+    <t>4015600660215</t>
+  </si>
+  <si>
+    <t>8016709197424</t>
+  </si>
+  <si>
+    <t>8710447246726</t>
+  </si>
+  <si>
+    <t>5201178032328</t>
+  </si>
+  <si>
+    <t>8710447246740</t>
+  </si>
+  <si>
+    <t>8714789979571</t>
+  </si>
+  <si>
+    <t>8714789462981</t>
+  </si>
+  <si>
+    <t>5201386250545</t>
+  </si>
+  <si>
+    <t>8001841261874</t>
   </si>
   <si>
     <t>5201178033912</t>
   </si>
   <si>
-    <t>5201178032328</t>
-  </si>
-  <si>
-    <t>4005808856695</t>
-  </si>
-  <si>
-    <t>3574661181417</t>
-  </si>
-  <si>
-    <t>4005808804511</t>
-  </si>
-  <si>
-    <t>5201178037750</t>
-  </si>
-  <si>
-    <t>5201178033011</t>
-  </si>
-  <si>
-    <t>5201178035138</t>
-  </si>
-  <si>
-    <t>4005808441624</t>
-  </si>
-  <si>
     <t>5201178026686</t>
   </si>
   <si>
-    <t>3574661192833</t>
-  </si>
-  <si>
-    <t>5201178035213</t>
-  </si>
-  <si>
-    <t>3574661467177</t>
+    <t>8016709197417</t>
   </si>
   <si>
     <t>4005808859634</t>
   </si>
   <si>
+    <t>8714789880501</t>
+  </si>
+  <si>
+    <t>8016709197516</t>
+  </si>
+  <si>
+    <t>8016709197868</t>
+  </si>
+  <si>
+    <t>8714100476482</t>
+  </si>
+  <si>
+    <t>8714789880464</t>
+  </si>
+  <si>
+    <t>8714789880556</t>
+  </si>
+  <si>
+    <t>8714789462950</t>
+  </si>
+  <si>
+    <t>5000174499544</t>
+  </si>
+  <si>
+    <t>8714789463049</t>
+  </si>
+  <si>
+    <t>8710447246771</t>
+  </si>
+  <si>
+    <t>8710847941801</t>
+  </si>
+  <si>
+    <t>8714789324821</t>
+  </si>
+  <si>
+    <t>5200251190153</t>
+  </si>
+  <si>
+    <t>8710447428733</t>
+  </si>
+  <si>
+    <t>5201004057440</t>
+  </si>
+  <si>
+    <t>5201004257468</t>
+  </si>
+  <si>
+    <t>87250510</t>
+  </si>
+  <si>
     <t>Nivea</t>
   </si>
   <si>
     <t>PizBuin</t>
+  </si>
+  <si>
+    <t>Ultrex</t>
+  </si>
+  <si>
+    <t>Nuvoletta</t>
+  </si>
+  <si>
+    <t>Pantene</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>Palmolive</t>
+  </si>
+  <si>
+    <t>Azax</t>
+  </si>
+  <si>
+    <t>Softex</t>
+  </si>
+  <si>
+    <t>Papadopoulou</t>
+  </si>
+  <si>
+    <t>Royal Dutch</t>
   </si>
 </sst>
 </file>
@@ -716,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -779,19 +1001,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D2" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="G2" s="2">
-        <v>16.95</v>
+        <v>15.5</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -800,7 +1022,7 @@
         <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -814,19 +1036,19 @@
         <v>12</v>
       </c>
       <c r="C3" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D3" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="G3" s="2">
-        <v>9.9</v>
+        <v>18.95</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -835,7 +1057,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -849,19 +1071,19 @@
         <v>12</v>
       </c>
       <c r="C4" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D4" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="G4" s="2">
-        <v>18.45</v>
+        <v>17.8</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -870,7 +1092,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -884,19 +1106,19 @@
         <v>12</v>
       </c>
       <c r="C5" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D5" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="G5" s="2">
-        <v>17.85</v>
+        <v>18.95</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -905,7 +1127,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -919,19 +1141,19 @@
         <v>12</v>
       </c>
       <c r="C6" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D6" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="G6" s="2">
-        <v>10.15</v>
+        <v>19.9</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -940,7 +1162,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -954,19 +1176,19 @@
         <v>12</v>
       </c>
       <c r="C7" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D7" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G7" s="2">
-        <v>10.45</v>
+        <v>17.3</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -975,7 +1197,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -989,16 +1211,16 @@
         <v>12</v>
       </c>
       <c r="C8" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D8" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="G8" s="2">
         <v>16.65</v>
@@ -1010,7 +1232,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -1024,19 +1246,19 @@
         <v>12</v>
       </c>
       <c r="C9" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D9" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="G9" s="2">
-        <v>15.5</v>
+        <v>17.85</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1045,7 +1267,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -1059,19 +1281,19 @@
         <v>12</v>
       </c>
       <c r="C10" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D10" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="G10" s="2">
-        <v>18.95</v>
+        <v>12.2</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1080,7 +1302,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -1094,19 +1316,19 @@
         <v>12</v>
       </c>
       <c r="C11" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D11" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="G11" s="2">
-        <v>17.3</v>
+        <v>18.45</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1115,7 +1337,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -1129,28 +1351,28 @@
         <v>12</v>
       </c>
       <c r="C12" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D12" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="G12" s="2">
-        <v>16.2</v>
+        <v>4.35</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -1164,19 +1386,19 @@
         <v>12</v>
       </c>
       <c r="C13" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D13" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="G13" s="2">
-        <v>17.3</v>
+        <v>12.5</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1185,13 +1407,13 @@
         <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>11.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1199,19 +1421,19 @@
         <v>12</v>
       </c>
       <c r="C14" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D14" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="G14" s="2">
-        <v>14.95</v>
+        <v>12.4</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1220,13 +1442,13 @@
         <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>9.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1234,19 +1456,19 @@
         <v>12</v>
       </c>
       <c r="C15" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D15" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="G15" s="2">
-        <v>19.9</v>
+        <v>16.8</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1255,13 +1477,13 @@
         <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>12.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1269,19 +1491,19 @@
         <v>12</v>
       </c>
       <c r="C16" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D16" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="G16" s="2">
-        <v>12.9</v>
+        <v>13.35</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1290,13 +1512,13 @@
         <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>8.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1304,34 +1526,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D17" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="G17" s="2">
-        <v>17.8</v>
+        <v>3.95</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>11.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1339,19 +1561,19 @@
         <v>12</v>
       </c>
       <c r="C18" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D18" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="G18" s="2">
-        <v>17.95</v>
+        <v>12.9</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1360,13 +1582,13 @@
         <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>11.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1374,19 +1596,19 @@
         <v>12</v>
       </c>
       <c r="C19" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D19" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="G19" s="2">
-        <v>17.3</v>
+        <v>9.1</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1395,13 +1617,13 @@
         <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>11.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1409,19 +1631,19 @@
         <v>12</v>
       </c>
       <c r="C20" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D20" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="G20" s="2">
-        <v>17.85</v>
+        <v>10.7</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1430,13 +1652,13 @@
         <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>11.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1444,34 +1666,34 @@
         <v>12</v>
       </c>
       <c r="C21" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D21" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="G21" s="2">
-        <v>9.9</v>
+        <v>2.95</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>6.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1479,19 +1701,19 @@
         <v>12</v>
       </c>
       <c r="C22" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D22" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="G22" s="2">
-        <v>12.9</v>
+        <v>16.95</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1500,13 +1722,13 @@
         <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="K22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2">
-        <v>8.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1514,19 +1736,19 @@
         <v>12</v>
       </c>
       <c r="C23" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D23" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="G23" s="2">
-        <v>12.7</v>
+        <v>17.3</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1535,13 +1757,13 @@
         <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="K23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2">
-        <v>8.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1549,34 +1771,34 @@
         <v>12</v>
       </c>
       <c r="C24" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D24" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="G24" s="2">
-        <v>9.1</v>
+        <v>2.95</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="K24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2">
-        <v>5.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1584,19 +1806,19 @@
         <v>12</v>
       </c>
       <c r="C25" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D25" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="G25" s="2">
-        <v>17.95</v>
+        <v>15.5</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1605,13 +1827,13 @@
         <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="K25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
-        <v>11.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1619,19 +1841,19 @@
         <v>12</v>
       </c>
       <c r="C26" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D26" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="G26" s="2">
-        <v>10.7</v>
+        <v>10.45</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -1640,13 +1862,13 @@
         <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="K26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2">
-        <v>6.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1654,19 +1876,19 @@
         <v>12</v>
       </c>
       <c r="C27" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D27" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="G27" s="2">
-        <v>18.99</v>
+        <v>17.85</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1675,13 +1897,13 @@
         <v>20</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="2">
-        <v>12.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1689,19 +1911,19 @@
         <v>12</v>
       </c>
       <c r="C28" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D28" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="G28" s="2">
-        <v>13.35</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1710,13 +1932,13 @@
         <v>20</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="K28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="2">
-        <v>10.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1724,19 +1946,19 @@
         <v>12</v>
       </c>
       <c r="C29" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D29" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="G29" s="2">
-        <v>14.3</v>
+        <v>12.7</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -1745,13 +1967,13 @@
         <v>20</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="K29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="2">
-        <v>9.220000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1759,19 +1981,19 @@
         <v>12</v>
       </c>
       <c r="C30" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D30" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="G30" s="2">
-        <v>15.5</v>
+        <v>9.9</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -1780,13 +2002,13 @@
         <v>20</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1794,19 +2016,19 @@
         <v>12</v>
       </c>
       <c r="C31" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D31" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="G31" s="2">
-        <v>13.35</v>
+        <v>9.9</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -1815,13 +2037,13 @@
         <v>20</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="K31" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L31" s="2">
-        <v>17.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1829,19 +2051,19 @@
         <v>12</v>
       </c>
       <c r="C32" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D32" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="G32" s="2">
-        <v>12.4</v>
+        <v>14.95</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -1850,13 +2072,13 @@
         <v>20</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="K32" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L32" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1864,19 +2086,19 @@
         <v>12</v>
       </c>
       <c r="C33" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D33" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="G33" s="2">
-        <v>12.5</v>
+        <v>16.2</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -1885,13 +2107,13 @@
         <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="K33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L33" s="2">
-        <v>16.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1899,19 +2121,19 @@
         <v>12</v>
       </c>
       <c r="C34" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D34" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="G34" s="2">
-        <v>18.45</v>
+        <v>17.95</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -1920,13 +2142,13 @@
         <v>20</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="K34" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L34" s="2">
-        <v>23.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1934,19 +2156,19 @@
         <v>12</v>
       </c>
       <c r="C35" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D35" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="G35" s="2">
-        <v>14.95</v>
+        <v>18.99</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -1955,13 +2177,13 @@
         <v>20</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="K35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L35" s="2">
-        <v>19.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1969,19 +2191,19 @@
         <v>12</v>
       </c>
       <c r="C36" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D36" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="G36" s="2">
-        <v>18.95</v>
+        <v>13.35</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -1990,48 +2212,48 @@
         <v>20</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="K36" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L36" s="2">
-        <v>24.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C37" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D37" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="G37" s="2">
-        <v>16.8</v>
+        <v>8.99</v>
       </c>
       <c r="H37" s="2">
-        <v>0</v>
+        <v>7.19</v>
       </c>
       <c r="I37" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="K37" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L37" s="2">
-        <v>19.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2039,19 +2261,19 @@
         <v>12</v>
       </c>
       <c r="C38" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D38" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="G38" s="2">
-        <v>15.5</v>
+        <v>14.3</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2060,13 +2282,13 @@
         <v>20</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="K38" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L38" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2074,19 +2296,19 @@
         <v>12</v>
       </c>
       <c r="C39" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D39" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="G39" s="2">
-        <v>9.9</v>
+        <v>10.15</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2095,13 +2317,13 @@
         <v>20</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="K39" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L39" s="2">
-        <v>18.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2109,19 +2331,19 @@
         <v>12</v>
       </c>
       <c r="C40" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D40" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="G40" s="2">
-        <v>15.5</v>
+        <v>13.35</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -2130,13 +2352,13 @@
         <v>20</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="K40" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L40" s="2">
-        <v>40</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2144,34 +2366,34 @@
         <v>12</v>
       </c>
       <c r="C41" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D41" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="G41" s="2">
-        <v>17.95</v>
+        <v>3.45</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="K41" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L41" s="2">
-        <v>46.32</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2179,19 +2401,19 @@
         <v>12</v>
       </c>
       <c r="C42" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D42" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="G42" s="2">
-        <v>9.800000000000001</v>
+        <v>15.95</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2200,13 +2422,13 @@
         <v>20</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="K42" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L42" s="2">
-        <v>28.44</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2214,19 +2436,19 @@
         <v>12</v>
       </c>
       <c r="C43" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D43" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="G43" s="2">
-        <v>11.95</v>
+        <v>9.9</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2235,13 +2457,13 @@
         <v>20</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="K43" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L43" s="2">
-        <v>30.84</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2249,19 +2471,19 @@
         <v>12</v>
       </c>
       <c r="C44" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D44" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="G44" s="2">
-        <v>12.2</v>
+        <v>17.95</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2270,13 +2492,13 @@
         <v>20</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="K44" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L44" s="2">
-        <v>39.35</v>
+        <v>11.58</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2284,19 +2506,19 @@
         <v>12</v>
       </c>
       <c r="C45" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D45" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="G45" s="2">
-        <v>15.95</v>
+        <v>12.9</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2305,13 +2527,13 @@
         <v>20</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="K45" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L45" s="2">
-        <v>51.45</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2319,19 +2541,19 @@
         <v>12</v>
       </c>
       <c r="C46" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D46" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="G46" s="2">
-        <v>13.35</v>
+        <v>17.95</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2340,13 +2562,13 @@
         <v>20</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="K46" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L46" s="2">
-        <v>41.8</v>
+        <v>11.58</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2354,46 +2576,1166 @@
         <v>12</v>
       </c>
       <c r="C47" s="4">
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="D47" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="G47" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>20</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1</v>
+      </c>
+      <c r="L47" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D48" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G48" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>20</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1</v>
+      </c>
+      <c r="L48" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D49" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G49" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>20</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="L49" s="2">
+        <v>11.16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D50" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G50" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>30</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+      <c r="L50" s="2">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D51" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G51" s="2">
+        <v>3.95</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>30</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1</v>
+      </c>
+      <c r="L51" s="2">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D52" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G52" s="2">
+        <v>4.35</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>30</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K52" s="1">
+        <v>2</v>
+      </c>
+      <c r="L52" s="2">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D53" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G53" s="2">
+        <v>14.95</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>20</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K53" s="1">
+        <v>2</v>
+      </c>
+      <c r="L53" s="2">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D54" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G54" s="2">
+        <v>4.35</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>30</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K54" s="1">
+        <v>2</v>
+      </c>
+      <c r="L54" s="2">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D55" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G55" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>30</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K55" s="1">
+        <v>2</v>
+      </c>
+      <c r="L55" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D56" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G56" s="2">
+        <v>2.55</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>30</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K56" s="1">
+        <v>2</v>
+      </c>
+      <c r="L56" s="2">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D57" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G57" s="2">
+        <v>2.55</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>30</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K57" s="1">
+        <v>2</v>
+      </c>
+      <c r="L57" s="2">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D58" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G58" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>30</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K58" s="1">
+        <v>2</v>
+      </c>
+      <c r="L58" s="2">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D59" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G59" s="2">
+        <v>18.45</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>20</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K59" s="1">
+        <v>2</v>
+      </c>
+      <c r="L59" s="2">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D60" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G60" s="2">
+        <v>11.95</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>20</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K60" s="1">
+        <v>2</v>
+      </c>
+      <c r="L60" s="2">
+        <v>15.42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D61" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G61" s="2">
+        <v>3.95</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>30</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K61" s="1">
+        <v>2</v>
+      </c>
+      <c r="L61" s="2">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D62" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G62" s="2">
         <v>8.9</v>
       </c>
-      <c r="H47" s="2">
-        <v>0</v>
-      </c>
-      <c r="I47" s="1">
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
         <v>50</v>
       </c>
-      <c r="J47" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K47" s="1">
-        <v>11</v>
-      </c>
-      <c r="L47" s="2">
-        <v>39.47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="K48" s="5">
+      <c r="J62" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K62" s="1">
+        <v>2</v>
+      </c>
+      <c r="L62" s="2">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D63" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G63" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>30</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K63" s="1">
+        <v>2</v>
+      </c>
+      <c r="L63" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D64" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G64" s="2">
+        <v>3.95</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>30</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K64" s="1">
+        <v>2</v>
+      </c>
+      <c r="L64" s="2">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D65" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G65" s="2">
+        <v>3.95</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>30</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K65" s="1">
+        <v>3</v>
+      </c>
+      <c r="L65" s="2">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D66" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G66" s="2">
+        <v>8.99</v>
+      </c>
+      <c r="H66" s="2">
+        <v>7.19</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K66" s="1">
+        <v>3</v>
+      </c>
+      <c r="L66" s="2">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D67" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G67" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>30</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K67" s="1">
+        <v>4</v>
+      </c>
+      <c r="L67" s="2">
+        <v>7.51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D68" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G68" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>30</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K68" s="1">
+        <v>4</v>
+      </c>
+      <c r="L68" s="2">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D69" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L48" s="5">
-        <v>679.46</v>
+      <c r="F69" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G69" s="2">
+        <v>2.55</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>30</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K69" s="1">
+        <v>4</v>
+      </c>
+      <c r="L69" s="2">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D70" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G70" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>30</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K70" s="1">
+        <v>5</v>
+      </c>
+      <c r="L70" s="2">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D71" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G71" s="2">
+        <v>2.55</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>30</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K71" s="1">
+        <v>5</v>
+      </c>
+      <c r="L71" s="2">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D72" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G72" s="2">
+        <v>4.35</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>30</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K72" s="1">
+        <v>6</v>
+      </c>
+      <c r="L72" s="2">
+        <v>14.76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D73" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G73" s="2">
+        <v>8.99</v>
+      </c>
+      <c r="H73" s="2">
+        <v>7.19</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K73" s="1">
+        <v>6</v>
+      </c>
+      <c r="L73" s="2">
+        <v>27.84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D74" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G74" s="2">
+        <v>2.55</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>30</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K74" s="1">
+        <v>9</v>
+      </c>
+      <c r="L74" s="2">
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D75" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G75" s="2">
+        <v>3.99</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>30</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K75" s="1">
+        <v>12</v>
+      </c>
+      <c r="L75" s="2">
+        <v>27.01</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D76" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G76" s="2">
+        <v>5.95</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>30</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K76" s="1">
+        <v>15</v>
+      </c>
+      <c r="L76" s="2">
+        <v>49.38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D77" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G77" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>30</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K77" s="1">
+        <v>18</v>
+      </c>
+      <c r="L77" s="2">
+        <v>25.41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D78" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G78" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1">
+        <v>30</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K78" s="1">
+        <v>26</v>
+      </c>
+      <c r="L78" s="2">
+        <v>33.35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D79" s="4">
+        <v>43997</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K79" s="1">
+        <v>148</v>
+      </c>
+      <c r="L79" s="2">
+        <v>69.78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="K80" s="5">
+        <v>306</v>
+      </c>
+      <c r="L80" s="5">
+        <v>512.6899999999999</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I47">
+  <conditionalFormatting sqref="I1:I79">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2405,7 +3747,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J47">
+  <conditionalFormatting sqref="J1:J79">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/13.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/13.xlsx
@@ -148,7 +148,7 @@
     <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
   </si>
   <si>
-    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
+    <t>Nivea Sun® Kids Spray TRIGGER spf30+ 300ml</t>
   </si>
   <si>
     <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
@@ -1013,7 +1013,7 @@
         <v>91</v>
       </c>
       <c r="G2" s="2">
-        <v>15.5</v>
+        <v>13.9</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>92</v>
       </c>
       <c r="G3" s="2">
-        <v>18.95</v>
+        <v>13.9</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>96</v>
       </c>
       <c r="G7" s="2">
-        <v>17.3</v>
+        <v>14.95</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>97</v>
       </c>
       <c r="G8" s="2">
-        <v>16.65</v>
+        <v>15.2</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>98</v>
       </c>
       <c r="G9" s="2">
-        <v>17.85</v>
+        <v>15.45</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="2">
-        <v>18.45</v>
+        <v>15.98</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>111</v>
       </c>
       <c r="G22" s="2">
-        <v>16.95</v>
+        <v>13.9</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>112</v>
       </c>
       <c r="G23" s="2">
-        <v>17.3</v>
+        <v>13.55</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>115</v>
       </c>
       <c r="G26" s="2">
-        <v>10.45</v>
+        <v>9.9</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>116</v>
       </c>
       <c r="G27" s="2">
-        <v>17.85</v>
+        <v>16.2</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1958,7 +1958,7 @@
         <v>118</v>
       </c>
       <c r="G29" s="2">
-        <v>12.7</v>
+        <v>9.9</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         <v>121</v>
       </c>
       <c r="G32" s="2">
-        <v>14.95</v>
+        <v>13.4</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>122</v>
       </c>
       <c r="G33" s="2">
-        <v>16.2</v>
+        <v>14.2</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>123</v>
       </c>
       <c r="G34" s="2">
-        <v>17.95</v>
+        <v>15.2</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -2308,7 +2308,7 @@
         <v>128</v>
       </c>
       <c r="G39" s="2">
-        <v>10.15</v>
+        <v>9.9</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2413,7 +2413,7 @@
         <v>131</v>
       </c>
       <c r="G42" s="2">
-        <v>15.95</v>
+        <v>17.9</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>135</v>
       </c>
       <c r="G46" s="2">
-        <v>17.95</v>
+        <v>14.8</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2588,7 +2588,7 @@
         <v>136</v>
       </c>
       <c r="G47" s="2">
-        <v>15.5</v>
+        <v>14.95</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>138</v>
       </c>
       <c r="G49" s="2">
-        <v>17.3</v>
+        <v>14.9</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>142</v>
       </c>
       <c r="G53" s="2">
-        <v>14.95</v>
+        <v>16.4</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>149</v>
       </c>
       <c r="G60" s="2">
-        <v>11.95</v>
+        <v>10.9</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>165</v>
       </c>
       <c r="G76" s="2">
-        <v>5.95</v>
+        <v>6.95</v>
       </c>
       <c r="H76" s="2">
         <v>0</v>
